--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linhnguyen/Documents/Programming/final-assignment/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final-assignment\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2FA13C-4486-1E45-BB09-6D1F2D6674BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{5BD40006-6B8A-9246-9AF9-A043108D8FF9}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -419,21 +418,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFFCD0E-FA42-3144-B2F0-E1A9C2365E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -459,7 +458,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -471,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -483,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -493,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -507,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
